--- a/Recetas.xlsx
+++ b/Recetas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Planificador_comidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B926995-81E6-464C-8EE8-FFC0B26546D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EC06F9-62EB-418A-B4F5-D9781656BFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>categoria</t>
   </si>
@@ -195,9 +195,6 @@
     <t>smoothie</t>
   </si>
   <si>
-    <t>0, leche; 0, yogur</t>
-  </si>
-  <si>
     <t>Frutos secos</t>
   </si>
   <si>
@@ -231,15 +228,9 @@
     <t>verdura_cocida</t>
   </si>
   <si>
-    <t>Prueba2</t>
-  </si>
-  <si>
     <t>guarnicion_hidrato</t>
   </si>
   <si>
-    <t>0, B</t>
-  </si>
-  <si>
     <t>Zumo</t>
   </si>
   <si>
@@ -261,13 +252,46 @@
     <t>Albóndigas</t>
   </si>
   <si>
-    <t>0, carne picada; 2, huevos; 0, harina; 0, pan rallado</t>
-  </si>
-  <si>
     <t>Crema de calabaza</t>
   </si>
   <si>
     <t>0, calabaza; 2, quesitos light</t>
+  </si>
+  <si>
+    <t>Chaofan</t>
+  </si>
+  <si>
+    <t>0, carne picada; 2, huevos; 0, harina; 0, pan rallado; 0, tomate</t>
+  </si>
+  <si>
+    <t>0, arroz; 1, zanahoria; 1, puerro; 1, maíz</t>
+  </si>
+  <si>
+    <t>Falafel</t>
+  </si>
+  <si>
+    <t>1, bolsa de falafel</t>
+  </si>
+  <si>
+    <t>Fajitas de pollo</t>
+  </si>
+  <si>
+    <t>3, pechuga de pollo; 2, pimiento; 0, cebolla; 0, soja</t>
+  </si>
+  <si>
+    <t>0, leche; 0, yogur; 0, cacahuete en polvo</t>
+  </si>
+  <si>
+    <t>Banmian</t>
+  </si>
+  <si>
+    <t>0, pasta de arroz; 1, puerro; 1, col; 1, carne picada; 0, ajo</t>
+  </si>
+  <si>
+    <t>Ensalada de rúcula</t>
+  </si>
+  <si>
+    <t>1, paquete de rúcula; 0, tomates cherry; 0, feta</t>
   </si>
 </sst>
 </file>
@@ -409,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EBB40BD-BF2B-476C-9374-E61DD57541A0}" name="Tabla1" displayName="Tabla1" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{5EBB40BD-BF2B-476C-9374-E61DD57541A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5EBB40BD-BF2B-476C-9374-E61DD57541A0}" name="Tabla1" displayName="Tabla1" ref="A1:C41" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{5EBB40BD-BF2B-476C-9374-E61DD57541A0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6ABC7A23-6197-4E65-B701-1231A506028D}" name="plato"/>
     <tableColumn id="2" xr3:uid="{C2B26403-CA6F-4CAE-82C1-3A47586834D5}" name="categoria"/>
@@ -683,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +783,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,56 +970,56 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -1006,46 +1030,112 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
-        <v>80</v>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
